--- a/data/oregon/intermediate/product_key.xlsx
+++ b/data/oregon/intermediate/product_key.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cfree/Dropbox/Chris/UCSB/projects/domoic_acid_mgmt/data/oregon/processed/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cfree/Dropbox/Chris/UCSB/projects/domoic_acid_mgmt/data/oregon/intermediate/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{192AE007-7FD5-8640-995C-C4CF93BD8966}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3986C3B3-B20C-624C-AA2C-FE23C00B8795}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15540" xr2:uid="{8D73A268-735C-3A42-A1D5-FF80771FA286}"/>
+    <workbookView xWindow="4740" yWindow="500" windowWidth="29840" windowHeight="19560" xr2:uid="{8D73A268-735C-3A42-A1D5-FF80771FA286}"/>
   </bookViews>
   <sheets>
     <sheet name="Key" sheetId="1" r:id="rId1"/>
@@ -229,9 +229,6 @@
     <t>Metacarcinus magister</t>
   </si>
   <si>
-    <t>Native littleneck clam</t>
-  </si>
-  <si>
     <t>Leukoma staminea</t>
   </si>
   <si>
@@ -241,9 +238,6 @@
     <t>Purple varnish clam</t>
   </si>
   <si>
-    <t>Cockle clam</t>
-  </si>
-  <si>
     <t>Tresus capax</t>
   </si>
   <si>
@@ -347,6 +341,12 @@
   </si>
   <si>
     <t>Crassostrea gigas</t>
+  </si>
+  <si>
+    <t>Cockle</t>
+  </si>
+  <si>
+    <t>Littleneck clam</t>
   </si>
 </sst>
 </file>
@@ -710,7 +710,7 @@
   <dimension ref="A1:F53"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -728,7 +728,7 @@
         <v>34</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>35</v>
@@ -737,10 +737,10 @@
         <v>36</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
@@ -748,13 +748,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="E2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
@@ -765,10 +765,10 @@
         <v>5</v>
       </c>
       <c r="C3" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="E3" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
@@ -779,13 +779,13 @@
         <v>2</v>
       </c>
       <c r="C4" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D4" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E4" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
@@ -802,7 +802,7 @@
         <v>56</v>
       </c>
       <c r="E5" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
@@ -819,7 +819,7 @@
         <v>63</v>
       </c>
       <c r="E6" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
@@ -836,7 +836,7 @@
         <v>63</v>
       </c>
       <c r="E7" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
@@ -853,7 +853,7 @@
         <v>63</v>
       </c>
       <c r="E8" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
@@ -870,7 +870,7 @@
         <v>63</v>
       </c>
       <c r="E9" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
@@ -881,13 +881,13 @@
         <v>40</v>
       </c>
       <c r="C10" t="s">
-        <v>70</v>
+        <v>104</v>
       </c>
       <c r="D10" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="E10" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
@@ -898,13 +898,13 @@
         <v>6</v>
       </c>
       <c r="C11" t="s">
-        <v>70</v>
+        <v>104</v>
       </c>
       <c r="D11" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="E11" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
@@ -912,7 +912,7 @@
         <v>7</v>
       </c>
       <c r="B12" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C12" t="s">
         <v>59</v>
@@ -921,7 +921,7 @@
         <v>65</v>
       </c>
       <c r="E12" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
@@ -938,7 +938,7 @@
         <v>65</v>
       </c>
       <c r="E13" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
@@ -946,7 +946,7 @@
         <v>41</v>
       </c>
       <c r="B14" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C14" t="s">
         <v>59</v>
@@ -955,7 +955,7 @@
         <v>65</v>
       </c>
       <c r="E14" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
@@ -963,7 +963,7 @@
         <v>8</v>
       </c>
       <c r="B15" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C15" t="s">
         <v>59</v>
@@ -972,10 +972,10 @@
         <v>65</v>
       </c>
       <c r="E15" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F15" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
@@ -983,7 +983,7 @@
         <v>9</v>
       </c>
       <c r="B16" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C16" t="s">
         <v>59</v>
@@ -992,10 +992,10 @@
         <v>65</v>
       </c>
       <c r="E16" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F16" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
@@ -1003,7 +1003,7 @@
         <v>42</v>
       </c>
       <c r="B17" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C17" t="s">
         <v>59</v>
@@ -1012,10 +1012,10 @@
         <v>65</v>
       </c>
       <c r="E17" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F17" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
@@ -1023,7 +1023,7 @@
         <v>10</v>
       </c>
       <c r="B18" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C18" t="s">
         <v>59</v>
@@ -1032,10 +1032,10 @@
         <v>65</v>
       </c>
       <c r="E18" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F18" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
@@ -1043,7 +1043,7 @@
         <v>11</v>
       </c>
       <c r="B19" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C19" t="s">
         <v>59</v>
@@ -1052,10 +1052,10 @@
         <v>65</v>
       </c>
       <c r="E19" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F19" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
@@ -1063,7 +1063,7 @@
         <v>43</v>
       </c>
       <c r="B20" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C20" t="s">
         <v>59</v>
@@ -1072,10 +1072,10 @@
         <v>65</v>
       </c>
       <c r="E20" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F20" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
@@ -1083,7 +1083,7 @@
         <v>12</v>
       </c>
       <c r="B21" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C21" t="s">
         <v>59</v>
@@ -1092,10 +1092,10 @@
         <v>65</v>
       </c>
       <c r="E21" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F21" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.2">
@@ -1103,7 +1103,7 @@
         <v>38</v>
       </c>
       <c r="B22" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C22" t="s">
         <v>59</v>
@@ -1112,10 +1112,10 @@
         <v>65</v>
       </c>
       <c r="E22" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F22" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.2">
@@ -1132,7 +1132,7 @@
         <v>65</v>
       </c>
       <c r="E23" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.2">
@@ -1140,7 +1140,7 @@
         <v>27</v>
       </c>
       <c r="B24" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C24" t="s">
         <v>59</v>
@@ -1149,10 +1149,10 @@
         <v>65</v>
       </c>
       <c r="E24" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F24" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.2">
@@ -1160,7 +1160,7 @@
         <v>13</v>
       </c>
       <c r="B25" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C25" t="s">
         <v>59</v>
@@ -1169,10 +1169,10 @@
         <v>65</v>
       </c>
       <c r="E25" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="F25" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.2">
@@ -1180,7 +1180,7 @@
         <v>44</v>
       </c>
       <c r="B26" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C26" t="s">
         <v>59</v>
@@ -1189,10 +1189,10 @@
         <v>65</v>
       </c>
       <c r="E26" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="F26" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.2">
@@ -1200,7 +1200,7 @@
         <v>14</v>
       </c>
       <c r="B27" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C27" t="s">
         <v>59</v>
@@ -1209,10 +1209,10 @@
         <v>65</v>
       </c>
       <c r="E27" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="F27" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.2">
@@ -1220,7 +1220,7 @@
         <v>15</v>
       </c>
       <c r="B28" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C28" t="s">
         <v>59</v>
@@ -1229,10 +1229,10 @@
         <v>65</v>
       </c>
       <c r="E28" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="F28" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.2">
@@ -1240,7 +1240,7 @@
         <v>45</v>
       </c>
       <c r="B29" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C29" t="s">
         <v>59</v>
@@ -1249,10 +1249,10 @@
         <v>65</v>
       </c>
       <c r="E29" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="F29" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.2">
@@ -1260,7 +1260,7 @@
         <v>16</v>
       </c>
       <c r="B30" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C30" t="s">
         <v>59</v>
@@ -1269,10 +1269,10 @@
         <v>65</v>
       </c>
       <c r="E30" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="F30" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.2">
@@ -1280,7 +1280,7 @@
         <v>17</v>
       </c>
       <c r="B31" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C31" t="s">
         <v>59</v>
@@ -1289,10 +1289,10 @@
         <v>65</v>
       </c>
       <c r="E31" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="F31" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.2">
@@ -1309,7 +1309,7 @@
         <v>65</v>
       </c>
       <c r="E32" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.2">
@@ -1326,10 +1326,10 @@
         <v>65</v>
       </c>
       <c r="E33" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="F33" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.2">
@@ -1337,7 +1337,7 @@
         <v>46</v>
       </c>
       <c r="B34" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C34" t="s">
         <v>59</v>
@@ -1346,7 +1346,7 @@
         <v>65</v>
       </c>
       <c r="E34" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.2">
@@ -1363,7 +1363,7 @@
         <v>65</v>
       </c>
       <c r="E35" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.2">
@@ -1380,7 +1380,7 @@
         <v>55</v>
       </c>
       <c r="E36" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.2">
@@ -1397,7 +1397,7 @@
         <v>55</v>
       </c>
       <c r="E37" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.2">
@@ -1414,7 +1414,7 @@
         <v>55</v>
       </c>
       <c r="E38" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.2">
@@ -1431,7 +1431,7 @@
         <v>55</v>
       </c>
       <c r="E39" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.2">
@@ -1448,7 +1448,7 @@
         <v>55</v>
       </c>
       <c r="E40" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.2">
@@ -1459,13 +1459,13 @@
         <v>49</v>
       </c>
       <c r="C41" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D41" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="E41" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.2">
@@ -1476,13 +1476,13 @@
         <v>51</v>
       </c>
       <c r="C42" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D42" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="E42" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.2">
@@ -1493,10 +1493,10 @@
         <v>32</v>
       </c>
       <c r="C43" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="E43" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.2">
@@ -1507,13 +1507,13 @@
         <v>24</v>
       </c>
       <c r="C44" t="s">
+        <v>105</v>
+      </c>
+      <c r="D44" t="s">
         <v>66</v>
       </c>
-      <c r="D44" t="s">
-        <v>67</v>
-      </c>
       <c r="E44" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.2">
@@ -1524,13 +1524,13 @@
         <v>28</v>
       </c>
       <c r="C45" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D45" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E45" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.2">
@@ -1541,13 +1541,13 @@
         <v>37</v>
       </c>
       <c r="C46" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D46" t="s">
         <v>58</v>
       </c>
       <c r="E46" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.2">
@@ -1558,13 +1558,13 @@
         <v>0</v>
       </c>
       <c r="C47" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D47" t="s">
         <v>58</v>
       </c>
       <c r="E47" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.2">
@@ -1575,13 +1575,13 @@
         <v>29</v>
       </c>
       <c r="C48" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D48" t="s">
         <v>58</v>
       </c>
       <c r="E48" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.2">
@@ -1592,13 +1592,13 @@
         <v>54</v>
       </c>
       <c r="C49" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D49" t="s">
         <v>58</v>
       </c>
       <c r="E49" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.2">
@@ -1615,7 +1615,7 @@
         <v>57</v>
       </c>
       <c r="E50" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.2">
@@ -1632,7 +1632,7 @@
         <v>57</v>
       </c>
       <c r="E51" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.2">
@@ -1649,7 +1649,7 @@
         <v>57</v>
       </c>
       <c r="E52" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.2">
@@ -1660,10 +1660,10 @@
         <v>33</v>
       </c>
       <c r="C53" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="E53" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
   </sheetData>
@@ -1688,7 +1688,7 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
   </sheetData>

--- a/data/oregon/intermediate/product_key.xlsx
+++ b/data/oregon/intermediate/product_key.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cfree/Dropbox/Chris/UCSB/projects/domoic_acid_mgmt/data/oregon/intermediate/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3986C3B3-B20C-624C-AA2C-FE23C00B8795}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01BF93D8-C261-3442-8DBB-C8DBE683A3BE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4740" yWindow="500" windowWidth="29840" windowHeight="19560" xr2:uid="{8D73A268-735C-3A42-A1D5-FF80771FA286}"/>
+    <workbookView xWindow="11700" yWindow="500" windowWidth="29840" windowHeight="19560" xr2:uid="{8D73A268-735C-3A42-A1D5-FF80771FA286}"/>
   </bookViews>
   <sheets>
     <sheet name="Key" sheetId="1" r:id="rId1"/>
@@ -217,136 +217,136 @@
     <t>Razor clam</t>
   </si>
   <si>
+    <t>Mytilus californianus</t>
+  </si>
+  <si>
+    <t>Metacarcinus magister</t>
+  </si>
+  <si>
+    <t>Leukoma staminea</t>
+  </si>
+  <si>
+    <t>https://myodfw.com/crabbing-clamming/species/clams</t>
+  </si>
+  <si>
+    <t>Purple varnish clam</t>
+  </si>
+  <si>
+    <t>Clinocardium nuttallii</t>
+  </si>
+  <si>
+    <t>Bay clam spp.</t>
+  </si>
+  <si>
+    <t>Mytilus edulis</t>
+  </si>
+  <si>
+    <t>Bay mussel</t>
+  </si>
+  <si>
+    <t>Unknown</t>
+  </si>
+  <si>
+    <t>type</t>
+  </si>
+  <si>
+    <t>location</t>
+  </si>
+  <si>
+    <t>viscera</t>
+  </si>
+  <si>
+    <t>viscera (cooked)</t>
+  </si>
+  <si>
+    <t>viscera/legs</t>
+  </si>
+  <si>
+    <t>legs</t>
+  </si>
+  <si>
+    <t>yearlings</t>
+  </si>
+  <si>
+    <t>in shell</t>
+  </si>
+  <si>
+    <t>not specified</t>
+  </si>
+  <si>
+    <t>Mussel spp. (tsunami debris)</t>
+  </si>
+  <si>
+    <t>Coos Bay</t>
+  </si>
+  <si>
+    <t>Coos Bay - bay</t>
+  </si>
+  <si>
+    <t>Coos Bay - ocean</t>
+  </si>
+  <si>
+    <t>Off Depoe Bay</t>
+  </si>
+  <si>
+    <t>Astoria</t>
+  </si>
+  <si>
+    <t>Tillamook</t>
+  </si>
+  <si>
+    <t>Port Orford</t>
+  </si>
+  <si>
+    <t>Newport</t>
+  </si>
+  <si>
+    <t>Garibaldi</t>
+  </si>
+  <si>
+    <t>Brookings</t>
+  </si>
+  <si>
+    <t>Flores Creek</t>
+  </si>
+  <si>
+    <t>comm_name_orig</t>
+  </si>
+  <si>
+    <t>Crab</t>
+  </si>
+  <si>
+    <t>Bay crab</t>
+  </si>
+  <si>
+    <t>Ocean crab</t>
+  </si>
+  <si>
+    <t>Bay clams</t>
+  </si>
+  <si>
+    <t>Pacific oyster</t>
+  </si>
+  <si>
+    <t>Crassostrea gigas</t>
+  </si>
+  <si>
+    <t>Cockle</t>
+  </si>
+  <si>
+    <t>Littleneck clam</t>
+  </si>
+  <si>
+    <t>Gaper (horse) clam</t>
+  </si>
+  <si>
+    <t>Tresus capax/nuttallii</t>
+  </si>
+  <si>
     <t>Butter clam</t>
   </si>
   <si>
-    <t>Mytilus californianus</t>
-  </si>
-  <si>
-    <t>California mussel</t>
-  </si>
-  <si>
-    <t>Metacarcinus magister</t>
-  </si>
-  <si>
-    <t>Leukoma staminea</t>
-  </si>
-  <si>
-    <t>https://myodfw.com/crabbing-clamming/species/clams</t>
-  </si>
-  <si>
-    <t>Purple varnish clam</t>
-  </si>
-  <si>
-    <t>Tresus capax</t>
-  </si>
-  <si>
-    <t>Gaper clam</t>
-  </si>
-  <si>
-    <t>Clinocardium nuttallii</t>
-  </si>
-  <si>
-    <t>Bay clam spp.</t>
-  </si>
-  <si>
-    <t>Mytilus edulis</t>
-  </si>
-  <si>
-    <t>Bay mussel</t>
-  </si>
-  <si>
-    <t>Unknown</t>
-  </si>
-  <si>
-    <t>type</t>
-  </si>
-  <si>
-    <t>location</t>
-  </si>
-  <si>
-    <t>viscera</t>
-  </si>
-  <si>
-    <t>viscera (cooked)</t>
-  </si>
-  <si>
-    <t>viscera/legs</t>
-  </si>
-  <si>
-    <t>legs</t>
-  </si>
-  <si>
-    <t>yearlings</t>
-  </si>
-  <si>
-    <t>in shell</t>
-  </si>
-  <si>
-    <t>not specified</t>
-  </si>
-  <si>
-    <t>Mussel spp. (tsunami debris)</t>
-  </si>
-  <si>
-    <t>Coos Bay</t>
-  </si>
-  <si>
-    <t>Coos Bay - bay</t>
-  </si>
-  <si>
-    <t>Coos Bay - ocean</t>
-  </si>
-  <si>
-    <t>Off Depoe Bay</t>
-  </si>
-  <si>
-    <t>Astoria</t>
-  </si>
-  <si>
-    <t>Tillamook</t>
-  </si>
-  <si>
-    <t>Port Orford</t>
-  </si>
-  <si>
-    <t>Newport</t>
-  </si>
-  <si>
-    <t>Garibaldi</t>
-  </si>
-  <si>
-    <t>Brookings</t>
-  </si>
-  <si>
-    <t>Flores Creek</t>
-  </si>
-  <si>
-    <t>comm_name_orig</t>
-  </si>
-  <si>
-    <t>Crab</t>
-  </si>
-  <si>
-    <t>Bay crab</t>
-  </si>
-  <si>
-    <t>Ocean crab</t>
-  </si>
-  <si>
-    <t>Bay clams</t>
-  </si>
-  <si>
-    <t>Pacific oyster</t>
-  </si>
-  <si>
-    <t>Crassostrea gigas</t>
-  </si>
-  <si>
-    <t>Cockle</t>
-  </si>
-  <si>
-    <t>Littleneck clam</t>
+    <t>California (sea) mussel</t>
   </si>
 </sst>
 </file>
@@ -710,7 +710,7 @@
   <dimension ref="A1:F53"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -728,7 +728,7 @@
         <v>34</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>35</v>
@@ -737,10 +737,10 @@
         <v>36</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
@@ -748,13 +748,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="C2" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="E2" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
@@ -765,10 +765,10 @@
         <v>5</v>
       </c>
       <c r="C3" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="E3" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
@@ -779,13 +779,13 @@
         <v>2</v>
       </c>
       <c r="C4" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="D4" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="E4" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
@@ -796,13 +796,13 @@
         <v>3</v>
       </c>
       <c r="C5" t="s">
-        <v>62</v>
+        <v>104</v>
       </c>
       <c r="D5" t="s">
         <v>56</v>
       </c>
       <c r="E5" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
@@ -813,13 +813,13 @@
         <v>50</v>
       </c>
       <c r="C6" t="s">
-        <v>64</v>
+        <v>105</v>
       </c>
       <c r="D6" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E6" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
@@ -830,13 +830,13 @@
         <v>39</v>
       </c>
       <c r="C7" t="s">
-        <v>64</v>
+        <v>105</v>
       </c>
       <c r="D7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E7" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
@@ -847,13 +847,13 @@
         <v>4</v>
       </c>
       <c r="C8" t="s">
-        <v>64</v>
+        <v>105</v>
       </c>
       <c r="D8" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E8" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
@@ -864,13 +864,13 @@
         <v>50</v>
       </c>
       <c r="C9" t="s">
-        <v>64</v>
+        <v>105</v>
       </c>
       <c r="D9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E9" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
@@ -881,13 +881,13 @@
         <v>40</v>
       </c>
       <c r="C10" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="D10" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="E10" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
@@ -898,13 +898,13 @@
         <v>6</v>
       </c>
       <c r="C11" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="D11" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="E11" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
@@ -912,16 +912,16 @@
         <v>7</v>
       </c>
       <c r="B12" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="C12" t="s">
         <v>59</v>
       </c>
       <c r="D12" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E12" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
@@ -935,10 +935,10 @@
         <v>59</v>
       </c>
       <c r="D13" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E13" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
@@ -946,16 +946,16 @@
         <v>41</v>
       </c>
       <c r="B14" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="C14" t="s">
         <v>59</v>
       </c>
       <c r="D14" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E14" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
@@ -963,19 +963,19 @@
         <v>8</v>
       </c>
       <c r="B15" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="C15" t="s">
         <v>59</v>
       </c>
       <c r="D15" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E15" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="F15" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
@@ -983,19 +983,19 @@
         <v>9</v>
       </c>
       <c r="B16" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="C16" t="s">
         <v>59</v>
       </c>
       <c r="D16" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E16" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="F16" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
@@ -1003,19 +1003,19 @@
         <v>42</v>
       </c>
       <c r="B17" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="C17" t="s">
         <v>59</v>
       </c>
       <c r="D17" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E17" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="F17" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
@@ -1023,19 +1023,19 @@
         <v>10</v>
       </c>
       <c r="B18" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="C18" t="s">
         <v>59</v>
       </c>
       <c r="D18" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E18" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="F18" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
@@ -1043,19 +1043,19 @@
         <v>11</v>
       </c>
       <c r="B19" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="C19" t="s">
         <v>59</v>
       </c>
       <c r="D19" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E19" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="F19" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
@@ -1063,19 +1063,19 @@
         <v>43</v>
       </c>
       <c r="B20" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="C20" t="s">
         <v>59</v>
       </c>
       <c r="D20" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E20" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="F20" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
@@ -1083,19 +1083,19 @@
         <v>12</v>
       </c>
       <c r="B21" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="C21" t="s">
         <v>59</v>
       </c>
       <c r="D21" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E21" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="F21" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.2">
@@ -1103,19 +1103,19 @@
         <v>38</v>
       </c>
       <c r="B22" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="C22" t="s">
         <v>59</v>
       </c>
       <c r="D22" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E22" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="F22" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.2">
@@ -1129,10 +1129,10 @@
         <v>59</v>
       </c>
       <c r="D23" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E23" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.2">
@@ -1140,19 +1140,19 @@
         <v>27</v>
       </c>
       <c r="B24" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="C24" t="s">
         <v>59</v>
       </c>
       <c r="D24" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E24" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="F24" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.2">
@@ -1160,19 +1160,19 @@
         <v>13</v>
       </c>
       <c r="B25" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="C25" t="s">
         <v>59</v>
       </c>
       <c r="D25" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E25" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="F25" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.2">
@@ -1180,19 +1180,19 @@
         <v>44</v>
       </c>
       <c r="B26" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="C26" t="s">
         <v>59</v>
       </c>
       <c r="D26" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E26" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="F26" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.2">
@@ -1200,19 +1200,19 @@
         <v>14</v>
       </c>
       <c r="B27" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="C27" t="s">
         <v>59</v>
       </c>
       <c r="D27" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E27" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="F27" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.2">
@@ -1220,19 +1220,19 @@
         <v>15</v>
       </c>
       <c r="B28" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="C28" t="s">
         <v>59</v>
       </c>
       <c r="D28" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E28" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="F28" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.2">
@@ -1240,19 +1240,19 @@
         <v>45</v>
       </c>
       <c r="B29" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="C29" t="s">
         <v>59</v>
       </c>
       <c r="D29" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E29" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="F29" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.2">
@@ -1260,19 +1260,19 @@
         <v>16</v>
       </c>
       <c r="B30" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="C30" t="s">
         <v>59</v>
       </c>
       <c r="D30" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E30" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="F30" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.2">
@@ -1280,19 +1280,19 @@
         <v>17</v>
       </c>
       <c r="B31" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="C31" t="s">
         <v>59</v>
       </c>
       <c r="D31" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E31" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="F31" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.2">
@@ -1306,10 +1306,10 @@
         <v>59</v>
       </c>
       <c r="D32" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E32" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.2">
@@ -1323,13 +1323,13 @@
         <v>59</v>
       </c>
       <c r="D33" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E33" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="F33" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.2">
@@ -1337,16 +1337,16 @@
         <v>46</v>
       </c>
       <c r="B34" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="C34" t="s">
         <v>59</v>
       </c>
       <c r="D34" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E34" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.2">
@@ -1360,10 +1360,10 @@
         <v>59</v>
       </c>
       <c r="D35" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E35" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.2">
@@ -1380,7 +1380,7 @@
         <v>55</v>
       </c>
       <c r="E36" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.2">
@@ -1397,7 +1397,7 @@
         <v>55</v>
       </c>
       <c r="E37" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.2">
@@ -1414,7 +1414,7 @@
         <v>55</v>
       </c>
       <c r="E38" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.2">
@@ -1431,7 +1431,7 @@
         <v>55</v>
       </c>
       <c r="E39" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.2">
@@ -1448,7 +1448,7 @@
         <v>55</v>
       </c>
       <c r="E40" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.2">
@@ -1459,13 +1459,13 @@
         <v>49</v>
       </c>
       <c r="C41" t="s">
-        <v>70</v>
+        <v>102</v>
       </c>
       <c r="D41" t="s">
-        <v>69</v>
+        <v>103</v>
       </c>
       <c r="E41" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.2">
@@ -1476,13 +1476,13 @@
         <v>51</v>
       </c>
       <c r="C42" t="s">
-        <v>70</v>
+        <v>102</v>
       </c>
       <c r="D42" t="s">
-        <v>69</v>
+        <v>103</v>
       </c>
       <c r="E42" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.2">
@@ -1493,10 +1493,10 @@
         <v>32</v>
       </c>
       <c r="C43" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="E43" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.2">
@@ -1507,13 +1507,13 @@
         <v>24</v>
       </c>
       <c r="C44" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="D44" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E44" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.2">
@@ -1524,13 +1524,13 @@
         <v>28</v>
       </c>
       <c r="C45" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="D45" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="E45" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.2">
@@ -1541,13 +1541,13 @@
         <v>37</v>
       </c>
       <c r="C46" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D46" t="s">
         <v>58</v>
       </c>
       <c r="E46" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.2">
@@ -1558,13 +1558,13 @@
         <v>0</v>
       </c>
       <c r="C47" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D47" t="s">
         <v>58</v>
       </c>
       <c r="E47" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.2">
@@ -1575,13 +1575,13 @@
         <v>29</v>
       </c>
       <c r="C48" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D48" t="s">
         <v>58</v>
       </c>
       <c r="E48" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.2">
@@ -1592,13 +1592,13 @@
         <v>54</v>
       </c>
       <c r="C49" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D49" t="s">
         <v>58</v>
       </c>
       <c r="E49" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.2">
@@ -1615,7 +1615,7 @@
         <v>57</v>
       </c>
       <c r="E50" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.2">
@@ -1632,7 +1632,7 @@
         <v>57</v>
       </c>
       <c r="E51" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.2">
@@ -1649,7 +1649,7 @@
         <v>57</v>
       </c>
       <c r="E52" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.2">
@@ -1660,10 +1660,10 @@
         <v>33</v>
       </c>
       <c r="C53" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="E53" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
     </row>
   </sheetData>
@@ -1688,7 +1688,7 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
   </sheetData>
